--- a/Resources/1999/Advanced_Percentile_1999.xlsx
+++ b/Resources/1999/Advanced_Percentile_1999.xlsx
@@ -1375,46 +1375,46 @@
     <t>cunniwi01</t>
   </si>
   <si>
-    <t>Shaquille O'Neal*</t>
-  </si>
-  <si>
-    <t>Karl Malone*</t>
+    <t>Shaquille O'Neal</t>
+  </si>
+  <si>
+    <t>Karl Malone</t>
   </si>
   <si>
     <t>Shawn Kemp</t>
   </si>
   <si>
-    <t>Alonzo Mourning*</t>
-  </si>
-  <si>
-    <t>David Robinson*</t>
-  </si>
-  <si>
-    <t>Grant Hill*</t>
+    <t>Alonzo Mourning</t>
+  </si>
+  <si>
+    <t>David Robinson</t>
+  </si>
+  <si>
+    <t>Grant Hill</t>
   </si>
   <si>
     <t>Tim Duncan</t>
   </si>
   <si>
-    <t>Hakeem Olajuwon*</t>
+    <t>Hakeem Olajuwon</t>
   </si>
   <si>
     <t>Darrell Armstrong</t>
   </si>
   <si>
-    <t>Reggie Miller*</t>
-  </si>
-  <si>
-    <t>Charles Barkley*</t>
-  </si>
-  <si>
-    <t>Gary Payton*</t>
-  </si>
-  <si>
-    <t>Ray Allen*</t>
-  </si>
-  <si>
-    <t>Allen Iverson*</t>
+    <t>Reggie Miller</t>
+  </si>
+  <si>
+    <t>Charles Barkley</t>
+  </si>
+  <si>
+    <t>Gary Payton</t>
+  </si>
+  <si>
+    <t>Ray Allen</t>
+  </si>
+  <si>
+    <t>Allen Iverson</t>
   </si>
   <si>
     <t>Korleone Young</t>
@@ -1423,10 +1423,10 @@
     <t>Tyson Wheeler</t>
   </si>
   <si>
-    <t>John Stockton*</t>
-  </si>
-  <si>
-    <t>Arvydas Sabonis*</t>
+    <t>John Stockton</t>
+  </si>
+  <si>
+    <t>Arvydas Sabonis</t>
   </si>
   <si>
     <t>Kobe Bryant</t>
@@ -1444,7 +1444,7 @@
     <t>Paul Pierce</t>
   </si>
   <si>
-    <t>Jason Kidd*</t>
+    <t>Jason Kidd</t>
   </si>
   <si>
     <t>Malik Rose</t>
@@ -1474,7 +1474,7 @@
     <t>Tim Hardaway</t>
   </si>
   <si>
-    <t>Chris Mullin*</t>
+    <t>Chris Mullin</t>
   </si>
   <si>
     <t>Shammond Williams</t>
@@ -1522,13 +1522,13 @@
     <t>Antonio McDyess</t>
   </si>
   <si>
-    <t>Dikembe Mutombo*</t>
+    <t>Dikembe Mutombo</t>
   </si>
   <si>
     <t>David Wesley</t>
   </si>
   <si>
-    <t>Tracy McGrady*</t>
+    <t>Tracy McGrady</t>
   </si>
   <si>
     <t>Bonzi Wells</t>
@@ -1567,13 +1567,13 @@
     <t>Chris Webber</t>
   </si>
   <si>
-    <t>Scottie Pippen*</t>
+    <t>Scottie Pippen</t>
   </si>
   <si>
     <t>Latrell Sprewell</t>
   </si>
   <si>
-    <t>Patrick Ewing*</t>
+    <t>Patrick Ewing</t>
   </si>
   <si>
     <t>Tim Thomas</t>
@@ -1657,10 +1657,10 @@
     <t>Antonio Davis</t>
   </si>
   <si>
-    <t>Mitch Richmond*</t>
-  </si>
-  <si>
-    <t>Joe Dumars*</t>
+    <t>Mitch Richmond</t>
+  </si>
+  <si>
+    <t>Joe Dumars</t>
   </si>
   <si>
     <t>Danny Fortson</t>
@@ -2047,7 +2047,7 @@
     <t>Jayson Williams</t>
   </si>
   <si>
-    <t>Dominique Wilkins*</t>
+    <t>Dominique Wilkins</t>
   </si>
   <si>
     <t>B.J. Armstrong</t>
@@ -2317,7 +2317,7 @@
     <t>Vladimir Stepania</t>
   </si>
   <si>
-    <t>Steve Nash*</t>
+    <t>Steve Nash</t>
   </si>
   <si>
     <t>Matt Bullard</t>
@@ -2509,7 +2509,7 @@
     <t>Etdrick Bohannon</t>
   </si>
   <si>
-    <t>Dennis Rodman*</t>
+    <t>Dennis Rodman</t>
   </si>
   <si>
     <t>Hot Rod Williams</t>
